--- a/WebApplication/obj/Release/AspnetCompileMerge/Source/Doc/Customer.xlsx
+++ b/WebApplication/obj/Release/AspnetCompileMerge/Source/Doc/Customer.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyPc\Downloads\C#\WebApplication\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyPc\Desktop\QZO\New folder (2)\QconzApi\WebApplication\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,9 +41,6 @@
     <t>LastName</t>
   </si>
   <si>
-    <t>OfficeName</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>City</t>
+  </si>
+  <si>
+    <t>CustomerName</t>
   </si>
 </sst>
 </file>
@@ -406,8 +406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -431,7 +431,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -443,28 +443,28 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
